--- a/biology/Médecine/Tachycardie_supraventriculaire/Tachycardie_supraventriculaire.xlsx
+++ b/biology/Médecine/Tachycardie_supraventriculaire/Tachycardie_supraventriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une tachycardie supraventriculaire est un type de trouble du rythme cardiaque comportant une accélération de la fréquence cardiaque (tachycardie) dont l'origine n'est pas ventriculaire .
 </t>
@@ -511,7 +523,9 @@
           <t>Type et diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'aspect de l'électrocardiogramme et le mécanisme, les tachycardies supraventriculaires peuvent être :
 une fibrillation atriale ;
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces troubles du rythme peuvent être paroxystique (non permanent) ou permanent. Ils peuvent être totalement asymptomatique ou se manifester par des palpitations, un essoufflement pouvant témoigner d'une insuffisance cardiaque, des malaises (lipothymies), plus rarement, une perte de connaissance brève.
 Le diagnostic est fait sur l'électrocardiogramme lorsqu'il peut être fait durant une crise. En dehors de cette dernière, le diagnostic peut nécessiter un holter cardiaque, une épreuve d'effort, voire une exploration électrophysiologique ou un holter implantable.
@@ -581,7 +597,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle dépend du type de tachycardie. Une tachycardie, par exemple, par réentrée intranodale peut être juste gênante, sans aucun risque vital. Un flutter atrial ou une fibrillation atriale rapide prolongée peut se compliquer d'une insuffisance cardiaque et comporte un risque d'embolie.
 </t>
@@ -612,9 +630,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge des tachycardies supraventriculaires a fait l'objet de la publication de recommandations. Celles, américaines, datent de 2015[1], celles, européennes de 2019[2]. La fibrillation atriale et le flutter disposent de recommandations spécifiques.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge des tachycardies supraventriculaires a fait l'objet de la publication de recommandations. Celles, américaines, datent de 2015, celles, européennes de 2019. La fibrillation atriale et le flutter disposent de recommandations spécifiques.
 Le traitement consiste, selon les cas, en une simple surveillance, en un traitement médicamenteux (antiarythmiques) ou en une ablation par radiofréquence.
 </t>
         </is>
